--- a/artfynd/A 31942-2023 artfynd.xlsx
+++ b/artfynd/A 31942-2023 artfynd.xlsx
@@ -790,7 +790,7 @@
         <v>125080614</v>
       </c>
       <c r="B3" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>125080562</v>
       </c>
       <c r="B4" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
